--- a/medicine/Handicap/Test_TERMO/Test_TERMO.xlsx
+++ b/medicine/Handicap/Test_TERMO/Test_TERMO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tests TERMO (Tests d’Évaluation de Réception du Message Oral) sont des tests d'évaluation en rapport avec la surdité.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Permet au codeur LPC d’évaluer les compétences de l’élève sourd qu’il accompagne. Ce test est basé sur la répétition du message perçu par l’enfant, le jeune sourd. 
 Les tests TERMO comportent des épreuves de répétitions de phonèmes et syllabes, de mots, de phrases…
@@ -543,7 +557,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Évaluer la réception du message perçu.
 Il n’évalue pas la compréhension du langage oral et ne peut pas remplacer les évaluations orthophoniques.
